--- a/Analog-Signal-Components/Attemplifier/Component Measurements/Attemplifier Test.xlsx
+++ b/Analog-Signal-Components/Attemplifier/Component Measurements/Attemplifier Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SARAH'S/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarah/Documents/GitHub/Front-Page/Analog-Signal-Components/Attemplifier/Component Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C1593E-A3CD-5840-8177-53C2536CCC8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D185BA-8981-6242-8E4E-E6F82289BBB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14520" xr2:uid="{C2422FBC-FE4D-ED4E-9380-EFD49FB585A4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="75">
   <si>
     <t>Attemplifier Number</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>7.68 dB</t>
+  </si>
+  <si>
+    <t>6.84 dB</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F3E75C-F434-084D-B36D-AFB40E8686AA}">
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367:B369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4522,7 +4525,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
-        <f t="shared" ref="A326:A353" si="6">A325+1</f>
+        <f t="shared" ref="A326:A369" si="6">A325+1</f>
         <v>325</v>
       </c>
       <c r="B326" t="s">
@@ -4856,6 +4859,198 @@
         <v>45</v>
       </c>
     </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <f t="shared" si="6"/>
+        <v>353</v>
+      </c>
+      <c r="B354" t="s">
+        <v>3</v>
+      </c>
+      <c r="C354" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <f t="shared" si="6"/>
+        <v>354</v>
+      </c>
+      <c r="B355" t="s">
+        <v>3</v>
+      </c>
+      <c r="C355" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <f t="shared" si="6"/>
+        <v>355</v>
+      </c>
+      <c r="B356" t="s">
+        <v>3</v>
+      </c>
+      <c r="C356" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <f t="shared" si="6"/>
+        <v>356</v>
+      </c>
+      <c r="B357" t="s">
+        <v>3</v>
+      </c>
+      <c r="C357" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <f t="shared" si="6"/>
+        <v>357</v>
+      </c>
+      <c r="B358" t="s">
+        <v>3</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <f t="shared" si="6"/>
+        <v>358</v>
+      </c>
+      <c r="B359" t="s">
+        <v>3</v>
+      </c>
+      <c r="C359" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <f t="shared" si="6"/>
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>3</v>
+      </c>
+      <c r="C360" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <f t="shared" si="6"/>
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <f t="shared" si="6"/>
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>3</v>
+      </c>
+      <c r="C362" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <f t="shared" si="6"/>
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>3</v>
+      </c>
+      <c r="C363" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <f t="shared" si="6"/>
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>3</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <f t="shared" si="6"/>
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>3</v>
+      </c>
+      <c r="C365" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <f t="shared" si="6"/>
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>3</v>
+      </c>
+      <c r="C366" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <f t="shared" si="6"/>
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>3</v>
+      </c>
+      <c r="C367" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <f t="shared" si="6"/>
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>3</v>
+      </c>
+      <c r="C368" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <f t="shared" si="6"/>
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>3</v>
+      </c>
+      <c r="C369" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
